--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="55">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -147,6 +147,39 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back</t>
   </si>
 </sst>
 </file>
@@ -1596,33 +1629,56 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="6" spans="2:10"/>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="82">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -180,6 +180,87 @@
   </si>
   <si>
     <t xml:space="preserve">back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windows_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klick_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klick_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indow_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lick_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klick_on</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1734,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1673,14 +1754,46 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="88">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t xml:space="preserve">Klick_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indow_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on/off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +1752,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1754,46 +1772,14 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="6" spans="2:10"/>
+    <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="94">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t xml:space="preserve">off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next scree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back </t>
   </si>
 </sst>
 </file>
@@ -1778,8 +1796,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="87">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -208,6 +208,75 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;val&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textAreaMinute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1590,26 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7"/>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1538,6 +1627,24 @@
       </c>
     </row>
     <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1763,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1665,7 +1772,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1673,16 +1780,186 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="87">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1916,10 +1916,10 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -1933,7 +1933,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -1950,7 +1950,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="87">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -1891,29 +1891,29 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1925,12 +1925,12 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1945,23 +1945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10167" uniqueCount="102">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -277,6 +277,51 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bac</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;se</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;se&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +1990,57 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13245" uniqueCount="120">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -322,6 +322,60 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;hour&gt;:&lt;min&gt;:&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equalizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equalizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFABABAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amplified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treble</t>
   </si>
 </sst>
 </file>
@@ -2041,6 +2095,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13245" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18631" uniqueCount="133">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -376,6 +376,45 @@
   </si>
   <si>
     <t xml:space="preserve">Treble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;vzl&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;vzal&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input</t>
   </si>
 </sst>
 </file>
@@ -1759,6 +1798,26 @@
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9"/>
       <c r="K9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2197,6 +2256,91 @@
         <v>119</v>
       </c>
     </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18631" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19296" uniqueCount="136">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t xml:space="preserve">Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 :APM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1632,9 @@
       <c r="I3" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
@@ -1643,6 +1655,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1680,6 +1693,7 @@
         <v>54</v>
       </c>
       <c r="I5"/>
+      <c r="J5"/>
       <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1713,6 +1727,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
+      <c r="J6"/>
       <c r="K6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1748,6 +1763,7 @@
         <v>54</v>
       </c>
       <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1783,6 +1799,9 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1818,6 +1837,7 @@
         <v>54</v>
       </c>
       <c r="I9"/>
+      <c r="J9"/>
       <c r="K9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2054,44 +2074,44 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -2100,15 +2120,15 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -2117,15 +2137,15 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
@@ -2134,15 +2154,15 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -2151,15 +2171,15 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -2168,49 +2188,49 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -2219,12 +2239,12 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2236,15 +2256,15 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -2253,94 +2273,15 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19296" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19926" uniqueCount="147">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -424,6 +424,39 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1796,9 @@
         <v>54</v>
       </c>
       <c r="I7"/>
-      <c r="J7"/>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1799,9 +1834,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" t="s">
-        <v>134</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
@@ -2244,10 +2277,10 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -2256,15 +2289,15 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -2273,14 +2306,94 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="29"/>
   </sheetData>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19926" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20268" uniqueCount="147">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -2119,29 +2119,29 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -2153,12 +2153,12 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -2170,12 +2170,12 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -2187,83 +2187,83 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -2272,12 +2272,12 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
         <v>71</v>
@@ -2289,15 +2289,15 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -2306,12 +2306,12 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2323,12 +2323,12 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2340,12 +2340,12 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2357,43 +2357,27 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29"/>
   </sheetData>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20268" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20793" uniqueCount="152">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select element: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;vol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2377,10 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -2374,10 +2389,26 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="29"/>
   </sheetData>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20793" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21160" uniqueCount="157">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -472,6 +472,21 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan1 &lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan2 &lt;&gt; %</t>
   </si>
 </sst>
 </file>
@@ -2410,6 +2425,7 @@
       </c>
     </row>
     <row r="29"/>
+    <row r="30"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21550" uniqueCount="165">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -487,6 +487,30 @@
   </si>
   <si>
     <t xml:space="preserve">Fan2 &lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_pow:&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_sound:&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2334,7 @@
         <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -2424,8 +2448,108 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29"/>
-    <row r="30"/>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21550" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21769" uniqueCount="167">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player</t>
   </si>
 </sst>
 </file>
@@ -2550,6 +2556,23 @@
         <v>164</v>
       </c>
     </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21769" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22207" uniqueCount="171">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t xml:space="preserve">Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_pow:&lt;&gt; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_sound:&lt;&gt; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power:&lt;&gt; C°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound:&lt;&gt; C°</t>
   </si>
 </sst>
 </file>
@@ -2462,13 +2474,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
@@ -2502,7 +2514,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
